--- a/tutorials/simulation_models/cluster_test_scenario.xlsx
+++ b/tutorials/simulation_models/cluster_test_scenario.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fleet" sheetId="6" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -421,7 +421,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,7 +730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3218,7 +3217,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3246,7 +3247,7 @@
       <c r="A2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>101</v>
       </c>
       <c r="C2">
@@ -3263,7 +3264,7 @@
       <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>101</v>
       </c>
       <c r="C3">
@@ -3280,7 +3281,7 @@
       <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>101</v>
       </c>
       <c r="C4">
@@ -3297,7 +3298,7 @@
       <c r="A5" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>101</v>
       </c>
       <c r="C5">
@@ -3314,7 +3315,7 @@
       <c r="A6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>101</v>
       </c>
       <c r="C6">
@@ -3331,7 +3332,7 @@
       <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>101</v>
       </c>
       <c r="C7">
@@ -3348,7 +3349,7 @@
       <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>101</v>
       </c>
       <c r="C8">
@@ -3365,7 +3366,7 @@
       <c r="A9" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" t="s">
         <v>101</v>
       </c>
       <c r="C9">
@@ -3382,7 +3383,7 @@
       <c r="A10" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>101</v>
       </c>
       <c r="C10">
@@ -3399,7 +3400,7 @@
       <c r="A11" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>101</v>
       </c>
       <c r="C11">
@@ -3416,7 +3417,7 @@
       <c r="A12" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" t="s">
         <v>101</v>
       </c>
       <c r="C12">
@@ -3433,7 +3434,7 @@
       <c r="A13" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>101</v>
       </c>
       <c r="C13">
@@ -3450,7 +3451,7 @@
       <c r="A14" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>101</v>
       </c>
       <c r="C14">
@@ -3467,7 +3468,7 @@
       <c r="A15" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
         <v>101</v>
       </c>
       <c r="C15">
@@ -3484,7 +3485,7 @@
       <c r="A16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" t="s">
         <v>101</v>
       </c>
       <c r="C16">
@@ -3773,10 +3774,10 @@
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>104</v>
       </c>
     </row>
